--- a/planilha/2021/Outubro/EscalaASO1-Central-2ºTurno-Outubro.xlsx
+++ b/planilha/2021/Outubro/EscalaASO1-Central-2ºTurno-Outubro.xlsx
@@ -810,7 +810,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -820,152 +820,152 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="I4" s="3" t="inlineStr">
+      <c r="M4" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N4" s="3" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="P4" s="3" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="Q4" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R4" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="S4" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="T4" s="3" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="U4" s="3" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="V4" s="3" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="W4" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="X4" s="3" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="Y4" s="3" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="Z4" s="3" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="AA4" s="3" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="AB4" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AC4" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AD4" s="3" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="AE4" s="3" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="AF4" s="3" t="inlineStr">
         <is>
           <t>B4</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="N4" s="3" t="inlineStr">
+      <c r="AG4" s="3" t="inlineStr">
         <is>
           <t>B3</t>
-        </is>
-      </c>
-      <c r="O4" s="3" t="inlineStr">
-        <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="P4" s="3" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="Q4" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="R4" s="3" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="S4" s="3" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="T4" s="3" t="inlineStr">
-        <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="U4" s="3" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="V4" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="W4" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="X4" s="3" t="inlineStr">
-        <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="Y4" s="3" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="Z4" s="3" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="AA4" s="3" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="AB4" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AC4" s="3" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="AD4" s="3" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="AE4" s="3" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="AF4" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AG4" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
         </is>
       </c>
       <c r="AH4" s="3" t="n"/>
@@ -981,162 +981,162 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>B1</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>B4</t>
         </is>
       </c>
-      <c r="F5" s="5" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="M5" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N5" s="5" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="G5" s="5" t="inlineStr">
+      <c r="O5" s="5" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="Q5" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R5" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="S5" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="T5" s="5" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="H5" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="I5" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="J5" s="5" t="inlineStr">
+      <c r="U5" s="5" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="V5" s="5" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="W5" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="X5" s="5" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="Y5" s="5" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="Z5" s="5" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="K5" s="5" t="inlineStr">
+      <c r="AA5" s="5" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="AB5" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AC5" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AD5" s="5" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="AE5" s="5" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="AF5" s="5" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="L5" s="5" t="inlineStr">
-        <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="M5" s="5" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="N5" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="O5" s="5" t="inlineStr">
-        <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="P5" s="5" t="inlineStr">
+      <c r="AG5" s="5" t="inlineStr">
         <is>
           <t>Q1</t>
-        </is>
-      </c>
-      <c r="Q5" s="5" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="R5" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="S5" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="T5" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="U5" s="5" t="inlineStr">
-        <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="V5" s="5" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="W5" s="5" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="X5" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="Y5" s="5" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="Z5" s="5" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="AA5" s="5" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="AB5" s="5" t="inlineStr">
-        <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="AC5" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AD5" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AE5" s="5" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="AF5" s="5" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="AG5" s="5" t="inlineStr">
-        <is>
-          <t>Q2</t>
         </is>
       </c>
       <c r="AH5" s="5" t="n"/>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -1160,154 +1160,154 @@
           <t>F</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>B4</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="H6" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="I6" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="N6" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O6" s="3" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="P6" s="3" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="Q6" s="3" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="R6" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="S6" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="T6" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U6" s="3" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="V6" s="3" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="W6" s="3" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="X6" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Y6" s="3" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="Z6" s="3" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="AA6" s="3" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="AB6" s="3" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="AC6" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AD6" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AE6" s="3" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="AF6" s="3" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="L6" s="3" t="inlineStr">
-        <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="M6" s="3" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="N6" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="O6" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="P6" s="3" t="inlineStr">
-        <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="Q6" s="3" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="R6" s="3" t="inlineStr">
+      <c r="AG6" s="3" t="inlineStr">
         <is>
           <t>B1</t>
-        </is>
-      </c>
-      <c r="S6" s="3" t="inlineStr">
-        <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="T6" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="U6" s="3" t="inlineStr">
-        <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="V6" s="3" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="W6" s="3" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="X6" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="Y6" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="Z6" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AA6" s="3" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="AB6" s="3" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="AC6" s="3" t="inlineStr">
-        <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="AD6" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AE6" s="3" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="AF6" s="3" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="AG6" s="3" t="inlineStr">
-        <is>
-          <t>B2</t>
         </is>
       </c>
       <c r="AH6" s="3" t="n"/>
@@ -1333,152 +1333,152 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="L7" s="5" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="M7" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N7" s="5" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
+      <c r="O7" s="5" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="P7" s="5" t="inlineStr">
         <is>
           <t>B4</t>
         </is>
       </c>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="Q7" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R7" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="S7" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="T7" s="5" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="U7" s="5" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="K7" s="5" t="inlineStr">
+      <c r="V7" s="5" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="W7" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="X7" s="5" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="Y7" s="5" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="Z7" s="5" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="AA7" s="5" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="AB7" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AC7" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AD7" s="5" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="AE7" s="5" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="AF7" s="5" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="L7" s="5" t="inlineStr">
+      <c r="AG7" s="5" t="inlineStr">
         <is>
           <t>B4</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="N7" s="5" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="O7" s="5" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="P7" s="5" t="inlineStr">
-        <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="T7" s="5" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="U7" s="5" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="V7" s="5" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="X7" s="5" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="Y7" s="5" t="inlineStr">
-        <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="Z7" s="5" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="AA7" s="5" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AD7" s="5" t="inlineStr">
-        <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="AE7" s="5" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="AF7" s="5" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="AG7" s="5" t="inlineStr">
-        <is>
-          <t>Q1</t>
         </is>
       </c>
       <c r="AH7" s="5" t="n"/>
@@ -1504,152 +1504,152 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="K8" s="3" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
         <is>
           <t>B4</t>
         </is>
       </c>
-      <c r="H8" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="I8" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="N8" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O8" s="3" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="P8" s="3" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="K8" s="3" t="inlineStr">
+      <c r="Q8" s="3" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="R8" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="S8" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="T8" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U8" s="3" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="V8" s="3" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="L8" s="3" t="inlineStr">
+      <c r="W8" s="3" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="X8" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Y8" s="3" t="inlineStr">
         <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="M8" s="3" t="inlineStr">
-        <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="N8" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="O8" s="3" t="inlineStr">
+      <c r="Z8" s="3" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="P8" s="3" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="Q8" s="3" t="inlineStr">
+      <c r="AA8" s="3" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="AB8" s="3" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="R8" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="S8" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="T8" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="U8" s="3" t="inlineStr">
+      <c r="AC8" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AD8" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AE8" s="3" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="AF8" s="3" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="V8" s="3" t="inlineStr">
+      <c r="AG8" s="3" t="inlineStr">
         <is>
           <t>B2</t>
-        </is>
-      </c>
-      <c r="W8" s="3" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="X8" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="Y8" s="3" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="Z8" s="3" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="AA8" s="3" t="inlineStr">
-        <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="AB8" s="3" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="AC8" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AD8" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AE8" s="3" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="AF8" s="3" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="AG8" s="3" t="inlineStr">
-        <is>
-          <t>B3</t>
         </is>
       </c>
       <c r="AH8" s="3" t="n"/>
@@ -1675,142 +1675,142 @@
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="J9" s="5" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="K9" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="L9" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M9" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N9" s="5" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="O9" s="5" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="P9" s="5" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="Q9" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R9" s="5" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="S9" s="5" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="T9" s="5" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="U9" s="5" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="V9" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="W9" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="X9" s="5" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="Y9" s="5" t="inlineStr">
         <is>
           <t>B4</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="H9" s="5" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="I9" s="5" t="inlineStr">
+      <c r="Z9" s="5" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="AA9" s="5" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="AB9" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AC9" s="5" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="AD9" s="5" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="AE9" s="5" t="inlineStr">
         <is>
           <t>B1</t>
-        </is>
-      </c>
-      <c r="J9" s="5" t="inlineStr">
-        <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="K9" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L9" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="M9" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="N9" s="5" t="inlineStr">
-        <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="O9" s="5" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="P9" s="5" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="Q9" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="R9" s="5" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="S9" s="5" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="T9" s="5" t="inlineStr">
-        <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="U9" s="5" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="V9" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="W9" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="X9" s="5" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="Y9" s="5" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="Z9" s="5" t="inlineStr">
-        <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="AA9" s="5" t="inlineStr">
-        <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="AB9" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AC9" s="5" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="AD9" s="5" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="AE9" s="5" t="inlineStr">
-        <is>
-          <t>B3</t>
         </is>
       </c>
       <c r="AF9" s="4" t="inlineStr">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -1846,152 +1846,152 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="G10" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="H10" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="I10" s="3" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
+      <c r="J10" s="3" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="M10" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N10" s="3" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="O10" s="3" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="P10" s="3" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="H10" s="3" t="inlineStr">
+      <c r="Q10" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R10" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="S10" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="T10" s="3" t="inlineStr">
         <is>
           <t>B4</t>
         </is>
       </c>
-      <c r="I10" s="3" t="inlineStr">
+      <c r="U10" s="3" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="V10" s="3" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="W10" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="X10" s="3" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="J10" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K10" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L10" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="M10" s="3" t="inlineStr">
+      <c r="Y10" s="3" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="Z10" s="3" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="AA10" s="3" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="AB10" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AC10" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AD10" s="3" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="N10" s="3" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="O10" s="3" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="P10" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="Q10" s="3" t="inlineStr">
+      <c r="AE10" s="3" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="AF10" s="3" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="AG10" s="3" t="inlineStr">
         <is>
           <t>Q3</t>
-        </is>
-      </c>
-      <c r="R10" s="3" t="inlineStr">
-        <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="S10" s="3" t="inlineStr">
-        <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="T10" s="3" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="U10" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="V10" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="W10" s="3" t="inlineStr">
-        <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="X10" s="3" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="Y10" s="3" t="inlineStr">
-        <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="Z10" s="3" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="AA10" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AB10" s="3" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="AC10" s="3" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="AD10" s="3" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="AE10" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AF10" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AG10" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
         </is>
       </c>
       <c r="AH10" s="3" t="n"/>
@@ -2028,26 +2028,22 @@
       <c r="F11" s="5" t="inlineStr"/>
       <c r="G11" s="5" t="inlineStr">
         <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="H11" s="5" t="inlineStr"/>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
       <c r="I11" s="4" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
       <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="L11" s="5" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
       <c r="M11" s="5" t="inlineStr">
         <is>
           <t>B2</t>
@@ -2066,25 +2062,29 @@
       <c r="P11" s="5" t="inlineStr"/>
       <c r="Q11" s="5" t="inlineStr">
         <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="R11" s="5" t="inlineStr">
+        <is>
           <t>B4</t>
         </is>
       </c>
-      <c r="R11" s="5" t="inlineStr"/>
-      <c r="S11" s="5" t="inlineStr"/>
+      <c r="S11" s="5" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
       <c r="T11" s="4" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
       <c r="U11" s="5" t="inlineStr"/>
-      <c r="V11" s="5" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
+      <c r="V11" s="5" t="inlineStr"/>
       <c r="W11" s="5" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="X11" s="4" t="inlineStr">
@@ -2105,26 +2105,22 @@
       <c r="AA11" s="5" t="inlineStr"/>
       <c r="AB11" s="5" t="inlineStr">
         <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="AC11" s="5" t="inlineStr"/>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="AC11" s="5" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
       <c r="AD11" s="4" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
       <c r="AE11" s="5" t="inlineStr"/>
-      <c r="AF11" s="5" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="AG11" s="5" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
+      <c r="AF11" s="5" t="inlineStr"/>
+      <c r="AG11" s="5" t="inlineStr"/>
       <c r="AH11" s="5" t="n"/>
       <c r="AI11" s="5" t="n"/>
       <c r="AJ11" s="5" t="n"/>
@@ -2141,72 +2137,88 @@
           <t>6</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr"/>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F12" s="3" t="inlineStr"/>
-      <c r="G12" s="3" t="inlineStr"/>
-      <c r="H12" s="3" t="inlineStr">
-        <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="inlineStr">
-        <is>
-          <t>B2</t>
+      <c r="I12" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr"/>
       <c r="K12" s="3" t="inlineStr"/>
       <c r="L12" s="3" t="inlineStr"/>
-      <c r="M12" s="3" t="inlineStr"/>
-      <c r="N12" s="3" t="inlineStr">
+      <c r="M12" s="3" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
+      <c r="N12" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
       <c r="O12" s="4" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
       <c r="P12" s="3" t="inlineStr"/>
-      <c r="Q12" s="3" t="inlineStr"/>
+      <c r="Q12" s="3" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
       <c r="R12" s="3" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="S12" s="3" t="inlineStr">
         <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="T12" s="3" t="inlineStr">
-        <is>
-          <t>B1</t>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="T12" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
       <c r="U12" s="3" t="inlineStr"/>
       <c r="V12" s="3" t="inlineStr"/>
-      <c r="W12" s="3" t="inlineStr"/>
-      <c r="X12" s="3" t="inlineStr">
+      <c r="W12" s="3" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
+      <c r="X12" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
       <c r="Y12" s="4" t="inlineStr">
         <is>
           <t>F</t>
@@ -2218,15 +2230,19 @@
         </is>
       </c>
       <c r="AA12" s="3" t="inlineStr"/>
-      <c r="AB12" s="3" t="inlineStr"/>
+      <c r="AB12" s="3" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
       <c r="AC12" s="3" t="inlineStr">
         <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="AD12" s="3" t="inlineStr">
-        <is>
-          <t>Q2</t>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="AD12" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
         </is>
       </c>
       <c r="AE12" s="3" t="inlineStr"/>
@@ -2253,26 +2269,30 @@
           <t>Q1</t>
         </is>
       </c>
-      <c r="D13" s="5" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr">
         <is>
           <t>B4</t>
         </is>
       </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
       <c r="I13" s="5" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
@@ -2285,25 +2305,33 @@
       <c r="M13" s="5" t="inlineStr"/>
       <c r="N13" s="5" t="inlineStr">
         <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="O13" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="P13" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="R13" s="5" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="S13" s="5" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="T13" s="5" t="inlineStr">
+        <is>
           <t>Q3</t>
-        </is>
-      </c>
-      <c r="O13" s="5" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="P13" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="Q13" s="5" t="inlineStr"/>
-      <c r="R13" s="5" t="inlineStr"/>
-      <c r="S13" s="5" t="inlineStr"/>
-      <c r="T13" s="5" t="inlineStr">
-        <is>
-          <t>B4</t>
         </is>
       </c>
       <c r="U13" s="4" t="inlineStr">
@@ -2315,29 +2343,33 @@
       <c r="W13" s="5" t="inlineStr"/>
       <c r="X13" s="5" t="inlineStr">
         <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="Y13" s="5" t="inlineStr">
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="Y13" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Z13" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AA13" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AB13" s="5" t="inlineStr"/>
+      <c r="AC13" s="5" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="Z13" s="5" t="inlineStr">
-        <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="AA13" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AB13" s="5" t="inlineStr"/>
-      <c r="AC13" s="5" t="inlineStr"/>
       <c r="AD13" s="5" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="AE13" s="4" t="inlineStr">
@@ -2386,7 +2418,7 @@
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>B2</t>
+          <t>Q1</t>
         </is>
       </c>
       <c r="I14" s="4" t="inlineStr">
@@ -2399,7 +2431,7 @@
       <c r="L14" s="3" t="inlineStr"/>
       <c r="M14" s="3" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="N14" s="4" t="inlineStr">
@@ -2415,17 +2447,17 @@
       <c r="P14" s="3" t="inlineStr"/>
       <c r="Q14" s="3" t="inlineStr">
         <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="R14" s="3" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="S14" s="3" t="inlineStr">
+        <is>
           <t>Q1</t>
-        </is>
-      </c>
-      <c r="R14" s="3" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="S14" s="3" t="inlineStr">
-        <is>
-          <t>Q2</t>
         </is>
       </c>
       <c r="T14" s="4" t="inlineStr">
@@ -2437,7 +2469,7 @@
       <c r="V14" s="3" t="inlineStr"/>
       <c r="W14" s="3" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="X14" s="4" t="inlineStr">
@@ -2463,7 +2495,7 @@
       </c>
       <c r="AC14" s="3" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="AD14" s="4" t="inlineStr">
@@ -2513,12 +2545,12 @@
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="inlineStr">
         <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="I15" s="5" t="inlineStr">
+        <is>
           <t>Q1</t>
-        </is>
-      </c>
-      <c r="I15" s="5" t="inlineStr">
-        <is>
-          <t>Q3</t>
         </is>
       </c>
       <c r="J15" s="4" t="inlineStr">
@@ -2531,7 +2563,7 @@
       <c r="M15" s="5" t="inlineStr"/>
       <c r="N15" s="5" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="O15" s="4" t="inlineStr">
@@ -2547,17 +2579,17 @@
       <c r="Q15" s="5" t="inlineStr"/>
       <c r="R15" s="5" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="S15" s="5" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="T15" s="5" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="U15" s="4" t="inlineStr">
@@ -2590,12 +2622,12 @@
       <c r="AB15" s="5" t="inlineStr"/>
       <c r="AC15" s="5" t="inlineStr">
         <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="AD15" s="5" t="inlineStr">
+        <is>
           <t>Q3</t>
-        </is>
-      </c>
-      <c r="AD15" s="5" t="inlineStr">
-        <is>
-          <t>B2</t>
         </is>
       </c>
       <c r="AE15" s="4" t="inlineStr">
@@ -2618,94 +2650,122 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
-      <c r="D16" s="3" t="inlineStr"/>
-      <c r="E16" s="3" t="inlineStr"/>
-      <c r="F16" s="3" t="inlineStr"/>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr"/>
+      <c r="I16" s="3" t="inlineStr"/>
+      <c r="J16" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="L16" s="3" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="M16" s="3" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="N16" s="3" t="inlineStr"/>
+      <c r="O16" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="P16" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Q16" s="3" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="R16" s="3" t="inlineStr"/>
+      <c r="S16" s="3" t="inlineStr"/>
+      <c r="T16" s="3" t="inlineStr"/>
+      <c r="U16" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="V16" s="3" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="W16" s="3" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="X16" s="3" t="inlineStr"/>
+      <c r="Y16" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Z16" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AA16" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AB16" s="3" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="AC16" s="3" t="inlineStr"/>
+      <c r="AD16" s="3" t="inlineStr"/>
+      <c r="AE16" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AF16" s="3" t="inlineStr">
+        <is>
           <t>Q3</t>
         </is>
       </c>
-      <c r="H16" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="inlineStr"/>
-      <c r="J16" s="3" t="inlineStr"/>
-      <c r="K16" s="3" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="L16" s="3" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="M16" s="3" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="N16" s="3" t="inlineStr"/>
-      <c r="O16" s="3" t="inlineStr"/>
-      <c r="P16" s="3" t="inlineStr"/>
-      <c r="Q16" s="3" t="inlineStr">
-        <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="R16" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="S16" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="T16" s="3" t="inlineStr"/>
-      <c r="U16" s="3" t="inlineStr"/>
-      <c r="V16" s="3" t="inlineStr">
-        <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="W16" s="3" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-      <c r="X16" s="3" t="inlineStr"/>
-      <c r="Y16" s="3" t="inlineStr"/>
-      <c r="Z16" s="3" t="inlineStr"/>
-      <c r="AA16" s="3" t="inlineStr"/>
-      <c r="AB16" s="3" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
-      <c r="AC16" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AD16" s="3" t="inlineStr"/>
-      <c r="AE16" s="3" t="inlineStr"/>
-      <c r="AF16" s="3" t="inlineStr">
-        <is>
-          <t>B2</t>
-        </is>
-      </c>
       <c r="AG16" s="3" t="inlineStr">
         <is>
-          <t>B1</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="AH16" s="3" t="n"/>
@@ -2739,110 +2799,102 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F17" s="5" t="inlineStr">
-        <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
+      <c r="F17" s="5" t="inlineStr"/>
+      <c r="G17" s="5" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
       <c r="I17" s="4" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="J17" s="5" t="inlineStr">
+      <c r="J17" s="5" t="inlineStr"/>
+      <c r="K17" s="5" t="inlineStr"/>
+      <c r="L17" s="5" t="inlineStr"/>
+      <c r="M17" s="5" t="inlineStr">
         <is>
           <t>Q2</t>
         </is>
       </c>
-      <c r="K17" s="5" t="inlineStr">
+      <c r="N17" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O17" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="P17" s="5" t="inlineStr"/>
+      <c r="Q17" s="5" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="R17" s="5" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="S17" s="5" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="L17" s="5" t="inlineStr">
+      <c r="T17" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U17" s="5" t="inlineStr"/>
+      <c r="V17" s="5" t="inlineStr"/>
+      <c r="W17" s="5" t="inlineStr">
         <is>
           <t>Q1</t>
         </is>
       </c>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="O17" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="P17" s="5" t="inlineStr">
+      <c r="X17" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Y17" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Z17" s="4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AA17" s="5" t="inlineStr"/>
+      <c r="AB17" s="5" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="AC17" s="5" t="inlineStr">
         <is>
           <t>B4</t>
         </is>
       </c>
-      <c r="Q17" s="5" t="inlineStr"/>
-      <c r="R17" s="5" t="inlineStr"/>
-      <c r="S17" s="5" t="inlineStr"/>
-      <c r="T17" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="U17" s="5" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-      <c r="V17" s="5" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-      <c r="W17" s="5" t="inlineStr"/>
-      <c r="X17" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="Y17" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="Z17" s="4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AA17" s="5" t="inlineStr">
-        <is>
-          <t>B1</t>
-        </is>
-      </c>
-      <c r="AB17" s="5" t="inlineStr"/>
-      <c r="AC17" s="5" t="inlineStr"/>
       <c r="AD17" s="4" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="AE17" s="5" t="inlineStr">
-        <is>
-          <t>B2</t>
-        </is>
-      </c>
-      <c r="AF17" s="5" t="inlineStr">
-        <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="AG17" s="5" t="inlineStr">
-        <is>
-          <t>B4</t>
-        </is>
-      </c>
+      <c r="AE17" s="5" t="inlineStr"/>
+      <c r="AF17" s="5" t="inlineStr"/>
+      <c r="AG17" s="5" t="inlineStr"/>
       <c r="AH17" s="5" t="n"/>
       <c r="AI17" s="5" t="n"/>
       <c r="AJ17" s="5" t="n"/>
